--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Desktop\coleccion-tarjetas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DACC11-671C-4C20-8F44-2A4FC1D153CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9715DBB-5C71-4BCE-A268-DCA63F7B3C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40005" yWindow="2670" windowWidth="24690" windowHeight="15345" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Desktop\coleccion-tarjetas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9715DBB-5C71-4BCE-A268-DCA63F7B3C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F40C2-47E2-4A9F-8002-68745B8E3C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40005" yWindow="2670" windowWidth="24690" windowHeight="15345" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Desktop\coleccion-tarjetas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F40C2-47E2-4A9F-8002-68745B8E3C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53121473-A89C-4560-B153-E9BB1EF14956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40005" yWindow="2670" windowWidth="24690" windowHeight="15345" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
+    <workbookView xWindow="47745" yWindow="1230" windowWidth="24690" windowHeight="15345" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -59,66 +59,24 @@
     <t>basketball</t>
   </si>
   <si>
-    <t>Panini 1</t>
-  </si>
-  <si>
     <t>/cards/image1.jpg</t>
   </si>
   <si>
     <t>soccer</t>
   </si>
   <si>
-    <t>Panini 2</t>
-  </si>
-  <si>
-    <t>ginobili</t>
-  </si>
-  <si>
     <t>/cards/image2.jpg</t>
   </si>
   <si>
-    <t>Panini 3</t>
-  </si>
-  <si>
-    <t>jordan</t>
-  </si>
-  <si>
     <t>/cards/image3.jpg</t>
   </si>
   <si>
-    <t>campazzo facu</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
     <t>greatDeal</t>
   </si>
   <si>
-    <t>panini 4</t>
-  </si>
-  <si>
-    <t>panini 5</t>
-  </si>
-  <si>
-    <t>panini 6</t>
-  </si>
-  <si>
-    <t>panini 7</t>
-  </si>
-  <si>
-    <t>panini 8</t>
-  </si>
-  <si>
-    <t>panini 9</t>
-  </si>
-  <si>
-    <t>panini 10</t>
-  </si>
-  <si>
-    <t>panini 11</t>
-  </si>
-  <si>
     <t>excel_id</t>
   </si>
   <si>
@@ -156,16 +114,148 @@
   </si>
   <si>
     <t>stock</t>
+  </si>
+  <si>
+    <t>Card-012</t>
+  </si>
+  <si>
+    <t>Card-013</t>
+  </si>
+  <si>
+    <t>Card-014</t>
+  </si>
+  <si>
+    <t>Card-015</t>
+  </si>
+  <si>
+    <t>Card-016</t>
+  </si>
+  <si>
+    <t>/cards/image4.jpg</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>2013 Exquisite Collection '03 Tribute /35</t>
+  </si>
+  <si>
+    <t>/cards/image7.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image12.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image13.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image14.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image15.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image16.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image9.jpg</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>2004 SP Authentic Fabrics PATCH AUTO /50 BGS 8.5</t>
+  </si>
+  <si>
+    <t>2019 Exquisite Collection Signature Kicks  SHOE PATCH AUTO BGS 7.5</t>
+  </si>
+  <si>
+    <t>2009 Absolute Memorabilia ROOKIE RC PATCH AUTO /499 BGS 9 MINT</t>
+  </si>
+  <si>
+    <t>/cards/image11.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image5.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image6.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image8.jpg</t>
+  </si>
+  <si>
+    <t>/cards/image10.jpg</t>
+  </si>
+  <si>
+    <t>2001 Upper Deck MJ's Back PATCH /100 #CC3 BGS 9 MINT</t>
+  </si>
+  <si>
+    <t>2009 Panini Studio Silver Proof ROOKIE AUTO /49 #129 PSA 9 MINT</t>
+  </si>
+  <si>
+    <t>2017 Panini Encased Red ROOKIE AUTO /25 #171 BGS 9.5 GEM MINT</t>
+  </si>
+  <si>
+    <t>Jayson Tatum</t>
+  </si>
+  <si>
+    <t>2019 Panini Eminence Gilded Graphs Green AUTO 3/3 #GG-SCY</t>
+  </si>
+  <si>
+    <t>1978 Argentina Campeon Libro De Estampas ROOKIE #1 BVG 4 VGEX</t>
+  </si>
+  <si>
+    <t>Diego Maradona</t>
+  </si>
+  <si>
+    <t>2003 Topps Chrome ROOKIE #111 BGS 9 MINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LeBron James</t>
+  </si>
+  <si>
+    <t>Manu Ginobili</t>
+  </si>
+  <si>
+    <t>2021 Panini Eminence Larry O'Brien Gold Bar AUTO /3</t>
+  </si>
+  <si>
+    <t>2009 Panini Certified ROOKIE PATCH AUTO /399 #176 BGS 9 MINT</t>
+  </si>
+  <si>
+    <t>1997 Bowman's Best Techniques Atomic Refractor #T2 BGS 9 MINT</t>
+  </si>
+  <si>
+    <t>2017 Panini Encased ROOKIE AUTO /99 #171 BGS 9.5 GEM MINT</t>
+  </si>
+  <si>
+    <t>2014-15 Champions league Adrenalyn Top Master</t>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+  </si>
+  <si>
+    <t>2009 Panini Certified Mirror Blue /50 BGS 9.5</t>
+  </si>
+  <si>
+    <t>image2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,23 +617,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA126C-D60B-4EC0-8FDE-28B90D0445C8}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -558,311 +651,505 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>21900</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>320</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>6900</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>3500</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>150</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>320</v>
+        <v>5900</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>5500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>4800</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>150</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>29800</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>4500</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>7500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>150</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>150</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>2900</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>31900</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>4900</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>3700</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>3700</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>2200</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>150</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Desktop\coleccion-tarjetas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53121473-A89C-4560-B153-E9BB1EF14956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA927236-C05F-4A93-BF37-D6F754975F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47745" yWindow="1230" windowWidth="24690" windowHeight="15345" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1037,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1066,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Desktop\coleccion-tarjetas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA927236-C05F-4A93-BF37-D6F754975F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EC2E20-10CD-4417-BEA0-7C86FE8366F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47745" yWindow="1230" windowWidth="24690" windowHeight="15345" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
+    <workbookView xWindow="53310" yWindow="1155" windowWidth="24690" windowHeight="15345" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -131,36 +131,12 @@
     <t>Card-016</t>
   </si>
   <si>
-    <t>/cards/image4.jpg</t>
-  </si>
-  <si>
     <t>Michael Jordan</t>
   </si>
   <si>
     <t>2013 Exquisite Collection '03 Tribute /35</t>
   </si>
   <si>
-    <t>/cards/image7.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image12.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image13.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image14.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image15.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image16.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image9.jpg</t>
-  </si>
-  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
@@ -173,21 +149,6 @@
     <t>2009 Absolute Memorabilia ROOKIE RC PATCH AUTO /499 BGS 9 MINT</t>
   </si>
   <si>
-    <t>/cards/image11.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image5.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image6.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image8.jpg</t>
-  </si>
-  <si>
-    <t>/cards/image10.jpg</t>
-  </si>
-  <si>
     <t>2001 Upper Deck MJ's Back PATCH /100 #CC3 BGS 9 MINT</t>
   </si>
   <si>
@@ -240,6 +201,192 @@
   </si>
   <si>
     <t>image2</t>
+  </si>
+  <si>
+    <t>Card-017</t>
+  </si>
+  <si>
+    <t>Card-018</t>
+  </si>
+  <si>
+    <t>Card-019</t>
+  </si>
+  <si>
+    <t>Card-020</t>
+  </si>
+  <si>
+    <t>Card-021</t>
+  </si>
+  <si>
+    <t>Card-022</t>
+  </si>
+  <si>
+    <t>Card-023</t>
+  </si>
+  <si>
+    <t>Card-024</t>
+  </si>
+  <si>
+    <t>Card-025</t>
+  </si>
+  <si>
+    <t>Card-026</t>
+  </si>
+  <si>
+    <t>Card-027</t>
+  </si>
+  <si>
+    <t>Card-028</t>
+  </si>
+  <si>
+    <t>Card-029</t>
+  </si>
+  <si>
+    <t>2021 National Treasures Game Gear Prime PATCH AUTO /25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manu Ginobili </t>
+  </si>
+  <si>
+    <t>2023 National Treasures NBA Greatest Emerald  AUTO 5/5</t>
+  </si>
+  <si>
+    <t>2023 Panini Flawless  AUTO /25 #FA-MNU</t>
+  </si>
+  <si>
+    <t>2023 National Treasures NBA Greatest Gold AUTO /10</t>
+  </si>
+  <si>
+    <t>2024 Panini Eminence Emerald AUTO 3/3 #16</t>
+  </si>
+  <si>
+    <t>2023 Panini Flawless Frame AUTO /25 #FFS-MGB</t>
+  </si>
+  <si>
+    <t>2018 Panini World Cup Stickers Gold #288 PSA 9 MINT</t>
+  </si>
+  <si>
+    <t>2006 Panini World Cup Stickers #185 BGS 7.5 NRMT+</t>
+  </si>
+  <si>
+    <t>2015 Topps Match Attax UEFA Champions League Limited Edition Gold #LE2 PSA 9 MINT</t>
+  </si>
+  <si>
+    <t>2006 Panini UEFA Champions League  #145 PSA 7 NRMT</t>
+  </si>
+  <si>
+    <t>2023 Finest MLS Blue Refractors /150 #1 BGS 9 MINT</t>
+  </si>
+  <si>
+    <t>2023 Finest MLS Aqua Refractor /75 #1</t>
+  </si>
+  <si>
+    <t>ubicación</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>Card-030</t>
+  </si>
+  <si>
+    <t>Card-031</t>
+  </si>
+  <si>
+    <t>Card-032</t>
+  </si>
+  <si>
+    <t>Card-033</t>
+  </si>
+  <si>
+    <t>Card-034</t>
+  </si>
+  <si>
+    <t>Card-035</t>
+  </si>
+  <si>
+    <t>Card-036</t>
+  </si>
+  <si>
+    <t>Card-037</t>
+  </si>
+  <si>
+    <t>Card-038</t>
+  </si>
+  <si>
+    <t>Card-039</t>
+  </si>
+  <si>
+    <t>Card-040</t>
+  </si>
+  <si>
+    <t>2019 Panini Revolution Liftoff! Die-Cut ROOKIE RC #6 BGS 9 MINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zion Williamson</t>
+  </si>
+  <si>
+    <t>2020 Immaculate Collection Numbers Premium PATCH AUTO /14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D'Andre Swift </t>
+  </si>
+  <si>
+    <t>markt</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>2019 Panini Revolution Shock Wave  ROOKIE RC #21 PSA 9 MINT</t>
+  </si>
+  <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
+    <t>2016 Playoff Absolute MemorabiliaROOKIE /999 #200 BGS 9.5 GEM MINT</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>2020 Donruss Optic Holo  ROOKIE #159 SGC 9.5 MINT+</t>
+  </si>
+  <si>
+    <t>D'Andre Swift</t>
+  </si>
+  <si>
+    <t>2019 Panini FIFA 365 Adrenalyn XL  ROOKIE #303 PSA 9 MINT</t>
+  </si>
+  <si>
+    <t>Julian Alvarez</t>
+  </si>
+  <si>
+    <t>2011 Panini Copa America Stickers ROOKIE #133 BGS 6.5 EXMT+</t>
+  </si>
+  <si>
+    <t>Neymar</t>
+  </si>
+  <si>
+    <t>2022 Panini World Cup Stickers Extra Gold #KDB BGS 8.5 NM-MT+</t>
+  </si>
+  <si>
+    <t>Kevin De Bruyne</t>
+  </si>
+  <si>
+    <t>2022 Panini FIFA World Cup Extra Stickers Legends Silver PSA 9 MINT</t>
+  </si>
+  <si>
+    <t>2019 Panini Contenders Superstar Die-Cut  ROOKIE #8 PSA 9 MINT</t>
+  </si>
+  <si>
+    <t>2020 Panini Mosaic Green  ROOKIE #274 PSA 10 GEM MINT</t>
+  </si>
+  <si>
+    <t>2018 Donruss Kings  ROOKIE #24 PSA 10 GEM MINT</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
   </si>
 </sst>
 </file>
@@ -617,18 +764,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA126C-D60B-4EC0-8FDE-28B90D0445C8}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,10 +806,16 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -668,16 +823,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>21900</v>
@@ -685,11 +840,18 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>"/cards/alt-image"&amp;ROW(A1)&amp;".jpg"</f>
+        <v>/cards/alt-image1.jpg</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -697,16 +859,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>6900</v>
@@ -714,11 +876,18 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J41" si="0">"/cards/alt-image"&amp;ROW(A2)&amp;".jpg"</f>
+        <v>/cards/alt-image2.jpg</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -726,16 +895,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>3500</v>
@@ -746,11 +915,18 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image3.jpg</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -758,16 +934,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>5900</v>
@@ -775,14 +951,22 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image4.jpg</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image4.jpg</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -790,16 +974,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>5500</v>
@@ -807,14 +991,22 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image5.jpg</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image5.jpg</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -822,28 +1014,36 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>4800</v>
       </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image6.jpg</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image6.jpg</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -851,16 +1051,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>29800</v>
@@ -868,14 +1068,22 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I19" si="1">"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image7.jpg</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image7.jpg</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -883,16 +1091,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>4500</v>
@@ -900,14 +1108,22 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image8.jpg</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image8.jpg</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -915,16 +1131,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>7500</v>
@@ -932,14 +1148,22 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image9.jpg</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image9.jpg</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -947,28 +1171,36 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>2900</v>
       </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image10.jpg</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image10.jpg</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -976,16 +1208,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>31900</v>
@@ -993,14 +1225,22 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image11.jpg</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image11.jpg</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1008,28 +1248,36 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>4900</v>
       </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image12.jpg</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image12.jpg</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1037,28 +1285,36 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>3700</v>
       </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image13.jpg</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image13.jpg</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1066,28 +1322,36 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>3700</v>
       </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image14.jpg</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image14.jpg</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1095,16 +1359,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>2200</v>
@@ -1112,14 +1376,22 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image15.jpg</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image15.jpg</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1127,25 +1399,921 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image16.jpg</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image16.jpg</v>
+      </c>
+      <c r="L17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <v>149</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image17.jpg</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image17.jpg</v>
+      </c>
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19">
+        <v>189</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>/cards/image18.jpg</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image18.jpg</v>
+      </c>
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20">
+        <v>489</v>
+      </c>
+      <c r="I20" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image19.jpg</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image19.jpg</v>
+      </c>
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>398</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image20.jpg</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image20.jpg</v>
+      </c>
+      <c r="L21" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>790</v>
+      </c>
+      <c r="I22" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image21.jpg</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image21.jpg</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23">
+        <v>290</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image22.jpg</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image22.jpg</v>
+      </c>
+      <c r="L23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>189</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image23.jpg</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image23.jpg</v>
+      </c>
+      <c r="L24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>190</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image24.jpg</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image24.jpg</v>
+      </c>
+      <c r="L25" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>120</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image25.jpg</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image25.jpg</v>
+      </c>
+      <c r="L26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <v>198</v>
+      </c>
+      <c r="I27" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image26.jpg</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image26.jpg</v>
+      </c>
+      <c r="L27" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <v>159</v>
+      </c>
+      <c r="I28" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image27.jpg</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image27.jpg</v>
+      </c>
+      <c r="L28" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29">
+        <v>179</v>
+      </c>
+      <c r="I29" t="str">
+        <f>"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image28.jpg</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image28.jpg</v>
+      </c>
+      <c r="L29" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30">
+        <v>45</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" ref="I30:I41" si="2">"/cards/image"&amp;ROW()-1&amp;".jpg"</f>
+        <v>/cards/image29.jpg</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image29.jpg</v>
+      </c>
+      <c r="L30" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31">
+        <v>139</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image30.jpg</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image30.jpg</v>
+      </c>
+      <c r="L31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image31.jpg</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image31.jpg</v>
+      </c>
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33">
         <v>39</v>
       </c>
-      <c r="J17" t="s">
-        <v>9</v>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image32.jpg</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image32.jpg</v>
+      </c>
+      <c r="L33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image33.jpg</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image33.jpg</v>
+      </c>
+      <c r="L34" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35">
+        <v>89</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image34.jpg</v>
+      </c>
+      <c r="J35" t="str">
+        <f>"/cards/alt-image"&amp;ROW(A34)&amp;".jpg"</f>
+        <v>/cards/alt-image34.jpg</v>
+      </c>
+      <c r="L35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <v>39</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image35.jpg</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image35.jpg</v>
+      </c>
+      <c r="L36" t="s">
+        <v>82</v>
+      </c>
+      <c r="M36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37">
+        <v>65</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image36.jpg</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image36.jpg</v>
+      </c>
+      <c r="L37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38">
+        <v>198</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image37.jpg</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image37.jpg</v>
+      </c>
+      <c r="L38" t="s">
+        <v>82</v>
+      </c>
+      <c r="M38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39">
+        <v>45</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image38.jpg</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image38.jpg</v>
+      </c>
+      <c r="L39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image39.jpg</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image39.jpg</v>
+      </c>
+      <c r="L40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41">
+        <v>55</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>/cards/image40.jpg</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>/cards/alt-image40.jpg</v>
+      </c>
+      <c r="L41" t="s">
+        <v>82</v>
+      </c>
+      <c r="M41" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/cards.xlsx
+++ b/data/cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Desktop\coleccion-tarjetas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553A5D1B-E42C-4901-BA7C-CD79B2B5D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651AECB-AD57-4656-AE4E-1AE220F42264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47025" yWindow="0" windowWidth="26955" windowHeight="18840" xr2:uid="{5A110E44-25D7-4ED3-A795-D10E7F39A1FE}"/>
   </bookViews>
@@ -2537,7 +2537,7 @@
   <dimension ref="A1:N338"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258"/>
+      <selection activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
